--- a/data/excel/dh_delta.xlsx
+++ b/data/excel/dh_delta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\graduateProject\pythonWorkplace\robot_model_calibration\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B101E8-88BF-4196-A7A3-8F018A8BBBF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8889CF93-5A7A-4E7F-B209-CE61BD4F0007}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26976" windowHeight="9276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>delta_theta</t>
   </si>
@@ -149,17 +149,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -168,10 +159,20 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -476,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:E31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -495,367 +496,397 @@
     <col min="15" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.6">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:18" ht="15.6">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.6">
-      <c r="A2" s="8">
+    <row r="2" spans="1:18" ht="15.6">
+      <c r="A2" s="3">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="2">
         <v>1.4630000000000001</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="2">
         <v>0.74429999999999996</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="2">
         <v>-9.9000000000000008E-3</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.6">
-      <c r="A3" s="7">
+    <row r="3" spans="1:18" ht="15.6">
+      <c r="A3" s="2">
         <v>1.06E-2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="2">
         <v>0.91539999999999999</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="2">
         <v>1.6667000000000001</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="2">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.6">
-      <c r="A4" s="7">
+    <row r="4" spans="1:18" ht="15.6">
+      <c r="A4" s="2">
         <v>-8.8999999999999999E-3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="2">
         <v>0.21210000000000001</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="2">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="2">
         <v>-4.4999999999999997E-3</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.6">
-      <c r="A5" s="7">
+    <row r="5" spans="1:18" ht="15.6">
+      <c r="A5" s="2">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="2">
         <v>0.26960000000000001</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="2">
         <v>0.76690000000000003</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="2">
         <v>-1.11E-2</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.6">
-      <c r="A6" s="7">
+    <row r="6" spans="1:18" ht="15.6">
+      <c r="A6" s="2">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="2">
         <v>1.9845999999999999</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="2">
         <v>0.69979999999999998</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="2">
         <v>-3.8999999999999998E-3</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.6">
-      <c r="A7" s="7">
+    <row r="7" spans="1:18" ht="15.6">
+      <c r="A7" s="2">
         <v>-4.7999999999999996E-3</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="2">
         <v>0.93820000000000003</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="2">
         <v>1.6189</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="2">
         <v>-1.0500000000000001E-2</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.6">
-      <c r="J11" s="3"/>
-      <c r="K11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.6">
-      <c r="J12" s="3">
-        <v>1</v>
-      </c>
-      <c r="K12" s="3">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="L12" s="4">
-        <v>1.4630000000000001</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0.74429999999999996</v>
-      </c>
-      <c r="N12" s="4">
-        <v>-9.9000000000000008E-3</v>
-      </c>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.6">
-      <c r="J13" s="3">
-        <v>2</v>
-      </c>
-      <c r="K13" s="4">
-        <v>1.06E-2</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0.91539999999999999</v>
-      </c>
-      <c r="M13" s="4">
-        <v>1.6667000000000001</v>
-      </c>
-      <c r="N13" s="4">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.6">
-      <c r="J14" s="3">
-        <v>3</v>
-      </c>
-      <c r="K14" s="4">
-        <v>-8.8999999999999999E-3</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0.21210000000000001</v>
-      </c>
-      <c r="M14" s="4">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="N14" s="4">
-        <v>-4.4999999999999997E-3</v>
-      </c>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" ht="15.6">
-      <c r="J15" s="3">
-        <v>4</v>
-      </c>
-      <c r="K15" s="4">
-        <v>-1.7000000000000001E-2</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0.26960000000000001</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0.76690000000000003</v>
-      </c>
-      <c r="N15" s="4">
-        <v>-1.11E-2</v>
-      </c>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" ht="15.6">
-      <c r="J16" s="3">
-        <v>5</v>
-      </c>
-      <c r="K16" s="4">
-        <v>9.1000000000000004E-3</v>
-      </c>
-      <c r="L16" s="4">
-        <v>1.9845999999999999</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0.69979999999999998</v>
-      </c>
-      <c r="N16" s="4">
-        <v>-3.8999999999999998E-3</v>
-      </c>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" ht="15.6">
-      <c r="J17" s="3">
-        <v>6</v>
-      </c>
-      <c r="K17" s="4">
-        <v>-4.7999999999999996E-3</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0.93820000000000003</v>
-      </c>
-      <c r="M17" s="4">
-        <v>1.6189</v>
-      </c>
-      <c r="N17" s="4">
-        <v>-1.0500000000000001E-2</v>
-      </c>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="25" spans="1:15" ht="15.6">
-      <c r="A25" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.6">
-      <c r="A26" s="11">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="B26" s="11">
-        <v>1.4630000000000001</v>
-      </c>
-      <c r="C26" s="11">
-        <v>0.74429999999999996</v>
-      </c>
-      <c r="D26" s="11">
-        <v>-9.9000000000000008E-3</v>
-      </c>
-      <c r="E26" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.6">
-      <c r="A27" s="11">
-        <v>1.06E-2</v>
-      </c>
-      <c r="B27" s="11">
-        <v>0.91539999999999999</v>
-      </c>
-      <c r="C27" s="11">
-        <v>1.6667000000000001</v>
-      </c>
-      <c r="D27" s="11">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="E27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.6">
-      <c r="A28" s="11">
-        <v>-8.8999999999999999E-3</v>
-      </c>
-      <c r="B28" s="11">
-        <v>0.21210000000000001</v>
-      </c>
-      <c r="C28" s="11">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="D28" s="11">
-        <v>-4.4999999999999997E-3</v>
-      </c>
-      <c r="E28" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15.6">
-      <c r="A29" s="11">
-        <v>-1.7000000000000001E-2</v>
-      </c>
-      <c r="B29" s="11">
-        <v>0.26960000000000001</v>
-      </c>
-      <c r="C29" s="11">
-        <v>0.76690000000000003</v>
-      </c>
-      <c r="D29" s="11">
-        <v>-1.11E-2</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.6">
-      <c r="A30" s="11">
-        <v>9.1000000000000004E-3</v>
-      </c>
-      <c r="B30" s="11">
-        <v>1.9845999999999999</v>
-      </c>
-      <c r="C30" s="11">
-        <v>0.69979999999999998</v>
-      </c>
-      <c r="D30" s="11">
-        <v>-3.8999999999999998E-3</v>
-      </c>
-      <c r="E30" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.6">
-      <c r="A31" s="11">
-        <v>-4.7999999999999996E-3</v>
-      </c>
-      <c r="B31" s="11">
-        <v>0.93820000000000003</v>
-      </c>
-      <c r="C31" s="11">
-        <v>1.6189</v>
-      </c>
-      <c r="D31" s="11">
-        <v>-1.0500000000000001E-2</v>
-      </c>
-      <c r="E31" s="11">
-        <v>0</v>
-      </c>
+    <row r="10" spans="1:18">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.6">
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.6">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.6">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.6">
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.6">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.6">
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="1:18" ht="15.6">
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:18" ht="15.6">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:18" ht="15.6">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.6">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.6">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:18" ht="15.6">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.6">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:18" ht="15.6">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
